--- a/biology/Zoologie/Cirrhitichthys_falco/Cirrhitichthys_falco.xlsx
+++ b/biology/Zoologie/Cirrhitichthys_falco/Cirrhitichthys_falco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirrhitichthys falco · Épervier nain, Épervier à joue épineuse
-Cirrhitichthys falco, communément nommé Épervier nain ou Épervier à joue épineuse[2], est une espèce de poisson marin de la famille des Cirrhitidae soit les poissons-faucons ou poissons-éperviers.
-L'Épervier à joue épineuse est présent dans les eaux tropicales de la région Indo-Pacifique des Maldives aux îles Carolines et Samoa[3].
-Sa taille maximale est de 7 cm[3].
+Cirrhitichthys falco, communément nommé Épervier nain ou Épervier à joue épineuse, est une espèce de poisson marin de la famille des Cirrhitidae soit les poissons-faucons ou poissons-éperviers.
+L'Épervier à joue épineuse est présent dans les eaux tropicales de la région Indo-Pacifique des Maldives aux îles Carolines et Samoa.
+Sa taille maximale est de 7 cm.
 			Cirrhitichthys falco (Sulawesi, Indonésie).
 			Cirrhitichthys falco (Sabah, Malaisie).
 			Cirrhitichthys falco sur les côtes des iles Fidji.
